--- a/biology/Mycologie/Mycène_à_pied_rouge/Mycène_à_pied_rouge.xlsx
+++ b/biology/Mycologie/Mycène_à_pied_rouge/Mycène_à_pied_rouge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Myc%C3%A8ne_%C3%A0_pied_rouge</t>
+          <t>Mycène_à_pied_rouge</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mycena haematopus
 Le Mycène à pied rouge (Mycena haematopus) est une espèce de champignons de la famille des mycénacées. Il est répandu et commun en Europe et en Amérique du Nord, et a également été collecté au Japon et au Venezuela. Il est saprotrophe - ce qui signifie qu'il obtient des nutriments en consommant de la matière organique en décomposition - et les fructifications apparaissent en petits groupes ou en grappes sur les bûches, les troncs et les souches en décomposition d'arbres à feuilles caduques, en particulier de hêtre. Le champignon, décrit scientifiquement pour la première fois en 1799, est classé dans la section des lactides du genre Mycena, avec d'autres espèces qui produisent un latex laiteux ou coloré.
